--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value204.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value204.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9475168824863223</v>
+        <v>1.483322143554688</v>
       </c>
       <c r="B1">
-        <v>1.424272915647859</v>
+        <v>3.64454460144043</v>
       </c>
       <c r="C1">
-        <v>2.132053713568167</v>
+        <v>6.022371768951416</v>
       </c>
       <c r="D1">
-        <v>2.398841389101703</v>
+        <v>1.477355718612671</v>
       </c>
       <c r="E1">
-        <v>1.697191339660419</v>
+        <v>0.8647710084915161</v>
       </c>
     </row>
   </sheetData>
